--- a/src/test/resources/kustom_erillishaku_otsikoilla.xlsx
+++ b/src/test/resources/kustom_erillishaku_otsikoilla.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,39 +73,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,7 +99,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -120,64 +107,350 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="E2" activeCellId="0" pane="topLeft" sqref="E2"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5725490196078"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -206,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -234,12 +507,12 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/kustom_erillishaku_otsikoilla.xlsx
+++ b/src/test/resources/kustom_erillishaku_otsikoilla.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -31,6 +22,9 @@
     <t>Henkilötunnus</t>
   </si>
   <si>
+    <t>Sähköposti</t>
+  </si>
+  <si>
     <t>Syntymäaika</t>
   </si>
   <si>
@@ -56,6 +50,17 @@
   </si>
   <si>
     <t>010101-123N</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tuomas.hakkarainen@example.com</t>
+    </r>
   </si>
   <si>
     <t>1.1.1901</t>
@@ -73,21 +78,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,133 +131,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Blank">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="499BC9"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="6EC038"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="F1D130"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFA93A"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF2D21"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="6C2085"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -269,7 +279,52 @@
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -288,7 +343,28 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -309,7 +385,34 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -318,7 +421,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -327,26 +430,63 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -400,119 +540,1066 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9.375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" t="s" s="2">
         <v>15</v>
       </c>
+      <c r="H2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="19" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" ht="19" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" ht="19" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" ht="19" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="19" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" ht="19" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" ht="19" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/kustom_erillishaku_otsikoilla.xlsx
+++ b/src/test/resources/kustom_erillishaku_otsikoilla.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -28,7 +28,13 @@
     <t>Syntymäaika</t>
   </si>
   <si>
+    <t>Sukupuoli</t>
+  </si>
+  <si>
     <t>Hakija-oid</t>
+  </si>
+  <si>
+    <t>Äidinkieli</t>
   </si>
   <si>
     <t>Hakemuksentila</t>
@@ -66,6 +72,12 @@
     <t>1.1.1901</t>
   </si>
   <si>
+    <t>MIES</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
     <t>HYVAKSYTTY</t>
   </si>
   <si>
@@ -82,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -96,12 +108,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="11"/>
@@ -112,6 +124,11 @@
       <u val="single"/>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -157,7 +174,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -165,7 +182,7 @@
     <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1415,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1431,7 +1448,9 @@
     <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -1465,35 +1484,47 @@
       <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3"/>
       <c r="H2" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1">
@@ -1507,6 +1538,8 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" ht="19" customHeight="1">
       <c r="A4" s="4"/>
@@ -1519,6 +1552,8 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" ht="19" customHeight="1">
       <c r="A5" s="4"/>
@@ -1531,6 +1566,8 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" ht="19" customHeight="1">
       <c r="A6" s="4"/>
@@ -1543,6 +1580,8 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" ht="19" customHeight="1">
       <c r="A7" s="4"/>
@@ -1555,6 +1594,8 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" ht="19" customHeight="1">
       <c r="A8" s="4"/>
@@ -1567,6 +1608,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" ht="19" customHeight="1">
       <c r="A9" s="4"/>
@@ -1579,6 +1622,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" ht="19" customHeight="1">
       <c r="A10" s="4"/>
@@ -1591,6 +1636,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
